--- a/new.xlsx
+++ b/new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:E9"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +436,134 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>tickers</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>eps</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>windspeed</t>
+          <t>revenue</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>people</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/1/2017</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>27.82</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Rain</t>
+        <v>87</v>
+      </c>
+      <c r="E4" t="n">
+        <v>845</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>larry page</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/2/2017</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>4.61</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sunny</t>
+        <v>484</v>
+      </c>
+      <c r="E5" t="n">
+        <v>65</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noman Ali</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/3/2017</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Snow</t>
+        <v>85</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>bill gates</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/4/2017</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>24</v>
+          <t xml:space="preserve">RIL </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not in Stock</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Snow</t>
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>mukesh ambani</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/5/2017</t>
+          <t>TATA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>5.6</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Rain</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1/6/2017</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>31</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Sunny</t>
+        <v>-1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ratan tata</t>
         </is>
       </c>
     </row>
